--- a/tests/test_data/complete_output.xlsx
+++ b/tests/test_data/complete_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH2"/>
+  <dimension ref="A1:EI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>xmlFeedName</t>
+          <t>source</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
@@ -1122,6 +1122,11 @@
       <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>aiProcessedDate</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>last_updated</t>
         </is>
       </c>
     </row>
@@ -1432,6 +1437,7 @@
       <c r="EF2" t="inlineStr"/>
       <c r="EG2" t="inlineStr"/>
       <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/test_data/complete_output.xlsx
+++ b/tests/test_data/complete_output.xlsx
@@ -1160,11 +1160,7 @@
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>GM Manufacturer</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
@@ -1198,12 +1194,12 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Tovary a kategórie &gt; GM Category &gt; Subcategory</t>
+          <t>Tovary a kategórie &gt; GM Category | Subcategory</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Tovary a kategórie &gt; GM Category &gt; Subcategory</t>
+          <t>Tovary a kategórie &gt; GM Category | Subcategory</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
